--- a/data/pca/factorExposure/factorExposure_2018-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03805428174635094</v>
+        <v>0.02734679812654003</v>
       </c>
       <c r="C2">
-        <v>-0.04453411859622432</v>
+        <v>0.01644859036536891</v>
       </c>
       <c r="D2">
-        <v>-0.01327584574692529</v>
+        <v>0.02154525698738436</v>
       </c>
       <c r="E2">
-        <v>-0.03951640618854019</v>
+        <v>-0.01631057469546174</v>
       </c>
       <c r="F2">
-        <v>-0.1483519748853791</v>
+        <v>0.008638088542261479</v>
       </c>
       <c r="G2">
-        <v>-0.06013183065485915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.0836538480467223</v>
+      </c>
+      <c r="H2">
+        <v>-0.01999673673145208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1212732782197945</v>
+        <v>0.07772824133404548</v>
       </c>
       <c r="C3">
-        <v>-0.02757318240549367</v>
+        <v>-0.01211036218516233</v>
       </c>
       <c r="D3">
-        <v>0.05217635927531349</v>
+        <v>0.02151271459158823</v>
       </c>
       <c r="E3">
-        <v>-0.07049063589921713</v>
+        <v>-0.007694429993299466</v>
       </c>
       <c r="F3">
-        <v>-0.3907883213728781</v>
+        <v>-0.04327272343251972</v>
       </c>
       <c r="G3">
-        <v>-0.1947022628164555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.265538032342116</v>
+      </c>
+      <c r="H3">
+        <v>-0.04725638685651051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05421150961347464</v>
+        <v>0.04770569111598225</v>
       </c>
       <c r="C4">
-        <v>-0.004175735955378532</v>
+        <v>0.004054794728682211</v>
       </c>
       <c r="D4">
-        <v>-0.03672848647890053</v>
+        <v>0.04178207647405061</v>
       </c>
       <c r="E4">
-        <v>-0.06439008393753771</v>
+        <v>0.01865440948259287</v>
       </c>
       <c r="F4">
-        <v>-0.08261129540279415</v>
+        <v>0.04936597370796828</v>
       </c>
       <c r="G4">
-        <v>-0.05347839566269532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05937182181251365</v>
+      </c>
+      <c r="H4">
+        <v>-0.03109551385866448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01381042038503895</v>
+        <v>0.02572127873257863</v>
       </c>
       <c r="C6">
-        <v>-0.01063313137176198</v>
+        <v>0.004180904416932577</v>
       </c>
       <c r="D6">
-        <v>0.007916718181478245</v>
+        <v>0.05171011231289218</v>
       </c>
       <c r="E6">
-        <v>-0.02118833831791255</v>
+        <v>0.004049136241363672</v>
       </c>
       <c r="F6">
-        <v>-0.01643733712905848</v>
+        <v>0.03233104418776452</v>
       </c>
       <c r="G6">
-        <v>0.004288752140896394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01953003246477945</v>
+      </c>
+      <c r="H6">
+        <v>-0.05292413313185758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02805086912765716</v>
+        <v>0.02045221392372059</v>
       </c>
       <c r="C7">
-        <v>-0.02809937628207001</v>
+        <v>0.003517185247179341</v>
       </c>
       <c r="D7">
-        <v>0.009491667511592135</v>
+        <v>0.02503966402608442</v>
       </c>
       <c r="E7">
-        <v>-0.03992355731652303</v>
+        <v>0.03555481962903387</v>
       </c>
       <c r="F7">
-        <v>-0.06302062165184945</v>
+        <v>0.008427854157272653</v>
       </c>
       <c r="G7">
-        <v>-0.05786657029677911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03842696293361428</v>
+      </c>
+      <c r="H7">
+        <v>-0.02153074299285377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01907619845068214</v>
+        <v>0.006661261963560131</v>
       </c>
       <c r="C8">
-        <v>0.003869563614893408</v>
+        <v>-0.002282653571682881</v>
       </c>
       <c r="D8">
-        <v>-0.01219195269885207</v>
+        <v>0.01121284109673921</v>
       </c>
       <c r="E8">
-        <v>-0.06443080828138381</v>
+        <v>0.01018041262004305</v>
       </c>
       <c r="F8">
-        <v>-0.09289552788349843</v>
+        <v>0.02145134821851852</v>
       </c>
       <c r="G8">
-        <v>-0.07076611440724585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05945107143863318</v>
+      </c>
+      <c r="H8">
+        <v>-0.01042152327434501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04565599481319926</v>
+        <v>0.03978244961022742</v>
       </c>
       <c r="C9">
-        <v>0.008082174938561603</v>
+        <v>-0.0004951074295509711</v>
       </c>
       <c r="D9">
-        <v>-0.03044077073838261</v>
+        <v>0.03353405984618628</v>
       </c>
       <c r="E9">
-        <v>-0.06293982853853192</v>
+        <v>0.01704551759417829</v>
       </c>
       <c r="F9">
-        <v>-0.07711808373255442</v>
+        <v>0.02528833917918156</v>
       </c>
       <c r="G9">
-        <v>-0.04844970788276284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06465337112529501</v>
+      </c>
+      <c r="H9">
+        <v>-0.02891454541159584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03953782254222157</v>
+        <v>0.1011408785621448</v>
       </c>
       <c r="C10">
-        <v>0.008683110374283928</v>
+        <v>-0.03156427573783794</v>
       </c>
       <c r="D10">
-        <v>-0.02580617360917686</v>
+        <v>-0.1522869108983315</v>
       </c>
       <c r="E10">
-        <v>0.1128170920834021</v>
+        <v>-0.008433959074859816</v>
       </c>
       <c r="F10">
-        <v>-0.06159398460315623</v>
+        <v>-0.04733546234695264</v>
       </c>
       <c r="G10">
-        <v>0.01366258114779371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02102739990162818</v>
+      </c>
+      <c r="H10">
+        <v>-0.0003648607688110969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03478258537126663</v>
+        <v>0.02149868972558685</v>
       </c>
       <c r="C11">
-        <v>-0.01832392028661399</v>
+        <v>-0.008206897006692594</v>
       </c>
       <c r="D11">
-        <v>-0.002493990561104199</v>
+        <v>0.03689286712825751</v>
       </c>
       <c r="E11">
-        <v>-0.03335673892068851</v>
+        <v>-0.005061551539904084</v>
       </c>
       <c r="F11">
-        <v>-0.0353005013378981</v>
+        <v>0.01178534688239786</v>
       </c>
       <c r="G11">
-        <v>-0.02063346209053322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03560710893838999</v>
+      </c>
+      <c r="H11">
+        <v>-0.02998306277130128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04259919378650889</v>
+        <v>0.02978093565903853</v>
       </c>
       <c r="C12">
-        <v>-0.006013012874178726</v>
+        <v>-0.006498694614873804</v>
       </c>
       <c r="D12">
-        <v>-0.01023014584365704</v>
+        <v>0.03831824134578015</v>
       </c>
       <c r="E12">
-        <v>-0.04272649329646619</v>
+        <v>0.00639451314878336</v>
       </c>
       <c r="F12">
-        <v>-0.02047221518445137</v>
+        <v>0.01826045328841906</v>
       </c>
       <c r="G12">
-        <v>-0.01463902522223288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01531003081061775</v>
+      </c>
+      <c r="H12">
+        <v>-0.01481316876097116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02168276299570618</v>
+        <v>0.02753458062003069</v>
       </c>
       <c r="C13">
-        <v>-0.03544432371264537</v>
+        <v>0.01323825602998337</v>
       </c>
       <c r="D13">
-        <v>-0.004511029511090555</v>
+        <v>0.003991097764981576</v>
       </c>
       <c r="E13">
-        <v>-0.01051740161475923</v>
+        <v>-0.0183436614851517</v>
       </c>
       <c r="F13">
-        <v>-0.09260138395949355</v>
+        <v>0.01129325248490427</v>
       </c>
       <c r="G13">
-        <v>-0.04103176099377371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07150169820823776</v>
+      </c>
+      <c r="H13">
+        <v>-0.0294681371520755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01313895953082465</v>
+        <v>0.01721087475792214</v>
       </c>
       <c r="C14">
-        <v>-0.005632760394256075</v>
+        <v>0.0004295890753086207</v>
       </c>
       <c r="D14">
-        <v>-0.008075523972871338</v>
+        <v>0.004787543353473732</v>
       </c>
       <c r="E14">
-        <v>-0.03171501586342139</v>
+        <v>0.007788415316646167</v>
       </c>
       <c r="F14">
-        <v>-0.06037849697334136</v>
+        <v>0.01632406815818726</v>
       </c>
       <c r="G14">
-        <v>-0.06753420774253995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04651424391611401</v>
+      </c>
+      <c r="H14">
+        <v>0.0154911032416126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0257935822666783</v>
+        <v>0.02265479606053101</v>
       </c>
       <c r="C16">
-        <v>-0.01692930249689844</v>
+        <v>-0.008647714488270588</v>
       </c>
       <c r="D16">
-        <v>-0.004779527716648134</v>
+        <v>0.03327045282499231</v>
       </c>
       <c r="E16">
-        <v>-0.0309427533870179</v>
+        <v>1.986309669138848e-05</v>
       </c>
       <c r="F16">
-        <v>-0.04199061841851055</v>
+        <v>0.01625872226406119</v>
       </c>
       <c r="G16">
-        <v>-0.02495669767068607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03253596871389385</v>
+      </c>
+      <c r="H16">
+        <v>-0.02354956229471167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04276796669901879</v>
+        <v>0.03461113924141764</v>
       </c>
       <c r="C19">
-        <v>-0.01918229684211248</v>
+        <v>-0.0004025636114077942</v>
       </c>
       <c r="D19">
-        <v>-0.002142585507602054</v>
+        <v>0.01586874171996873</v>
       </c>
       <c r="E19">
-        <v>-0.04359784346404506</v>
+        <v>-0.001247315257136586</v>
       </c>
       <c r="F19">
-        <v>-0.1066475370535225</v>
+        <v>0.02386715358118035</v>
       </c>
       <c r="G19">
-        <v>-0.05037111590668591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07681207044844771</v>
+      </c>
+      <c r="H19">
+        <v>-0.04044043708141207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001236509828339634</v>
+        <v>0.01022804619520886</v>
       </c>
       <c r="C20">
-        <v>-0.01133616753989891</v>
+        <v>0.006634861962020177</v>
       </c>
       <c r="D20">
-        <v>-0.01260396396643818</v>
+        <v>0.004731643459432926</v>
       </c>
       <c r="E20">
-        <v>-0.03424537472740738</v>
+        <v>3.72756322754842e-06</v>
       </c>
       <c r="F20">
-        <v>-0.06275915424448433</v>
+        <v>0.01034355360959915</v>
       </c>
       <c r="G20">
-        <v>-0.07418739960826375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05384326202606137</v>
+      </c>
+      <c r="H20">
+        <v>0.00803861456071085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0007957666523630905</v>
+        <v>0.01950736644981334</v>
       </c>
       <c r="C21">
-        <v>-0.001446298250219052</v>
+        <v>0.006667306583038216</v>
       </c>
       <c r="D21">
-        <v>0.01147490084361289</v>
+        <v>0.00875894559122988</v>
       </c>
       <c r="E21">
-        <v>-0.03496823075495706</v>
+        <v>0.01189444145195253</v>
       </c>
       <c r="F21">
-        <v>-0.06328416620229227</v>
+        <v>0.006586972528590929</v>
       </c>
       <c r="G21">
-        <v>-0.02668516070371689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0657412513747903</v>
+      </c>
+      <c r="H21">
+        <v>-0.007859403780197092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03249877198966988</v>
+        <v>0.02077721646537065</v>
       </c>
       <c r="C24">
-        <v>-0.01615951048850314</v>
+        <v>-0.003174992759317911</v>
       </c>
       <c r="D24">
-        <v>-0.01055223806026337</v>
+        <v>0.03366276224433381</v>
       </c>
       <c r="E24">
-        <v>-0.01763368531113471</v>
+        <v>-0.0002358111515971054</v>
       </c>
       <c r="F24">
-        <v>-0.03595458811131082</v>
+        <v>0.01049710228818487</v>
       </c>
       <c r="G24">
-        <v>-0.01918469477763967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02912549812493918</v>
+      </c>
+      <c r="H24">
+        <v>-0.02758681218888353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03114457548719163</v>
+        <v>0.02986410395239588</v>
       </c>
       <c r="C25">
-        <v>-0.008364226069526812</v>
+        <v>-0.001031041246079111</v>
       </c>
       <c r="D25">
-        <v>-0.00329736294960248</v>
+        <v>0.03329328222789703</v>
       </c>
       <c r="E25">
-        <v>-0.03761423560580818</v>
+        <v>0.001444255180043888</v>
       </c>
       <c r="F25">
-        <v>-0.03575427210285646</v>
+        <v>0.01737769249290333</v>
       </c>
       <c r="G25">
-        <v>-0.004251257792966018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03374241201684904</v>
+      </c>
+      <c r="H25">
+        <v>-0.02971562364980865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02249037819224341</v>
+        <v>0.02081327641172556</v>
       </c>
       <c r="C26">
-        <v>-0.02961233155584502</v>
+        <v>0.01677932680649869</v>
       </c>
       <c r="D26">
-        <v>0.01754577440048549</v>
+        <v>0.00310713018803731</v>
       </c>
       <c r="E26">
-        <v>-0.03243398551663461</v>
+        <v>-0.007478682933674464</v>
       </c>
       <c r="F26">
-        <v>-0.06124893083596476</v>
+        <v>0.001423505756521021</v>
       </c>
       <c r="G26">
-        <v>-0.03118633333138951</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03900956557177725</v>
+      </c>
+      <c r="H26">
+        <v>0.00161414495590817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07145131471131297</v>
+        <v>0.02773774115693001</v>
       </c>
       <c r="C27">
-        <v>-0.01432871220737077</v>
+        <v>-0.01070788463258561</v>
       </c>
       <c r="D27">
-        <v>-0.05058190507332648</v>
+        <v>0.01761443644438883</v>
       </c>
       <c r="E27">
-        <v>-0.04789112012216471</v>
+        <v>0.005170665285064025</v>
       </c>
       <c r="F27">
-        <v>-0.05918008241359827</v>
+        <v>0.02194064868495635</v>
       </c>
       <c r="G27">
-        <v>-0.04886378832223209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02684158902402067</v>
+      </c>
+      <c r="H27">
+        <v>0.002375682117704826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05813179337006104</v>
+        <v>0.1513834667756269</v>
       </c>
       <c r="C28">
-        <v>0.02304305833433836</v>
+        <v>-0.03396894374141133</v>
       </c>
       <c r="D28">
-        <v>-0.04923050427803983</v>
+        <v>-0.2234300405864834</v>
       </c>
       <c r="E28">
-        <v>0.1720147677782426</v>
+        <v>-0.006258390923223249</v>
       </c>
       <c r="F28">
-        <v>-0.07390721829813102</v>
+        <v>-0.05310810333454095</v>
       </c>
       <c r="G28">
-        <v>-0.01525412716608211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007756317080512299</v>
+      </c>
+      <c r="H28">
+        <v>0.01790803993664977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02192542734374738</v>
+        <v>0.02184833060311217</v>
       </c>
       <c r="C29">
-        <v>-0.0003031087344336229</v>
+        <v>-0.001681316166726066</v>
       </c>
       <c r="D29">
-        <v>-0.01360069348243416</v>
+        <v>0.008236166675319331</v>
       </c>
       <c r="E29">
-        <v>-0.0471478952063224</v>
+        <v>0.009379043653065765</v>
       </c>
       <c r="F29">
-        <v>-0.04877425406188245</v>
+        <v>0.01951028116017709</v>
       </c>
       <c r="G29">
-        <v>-0.05999712986445183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0400218032504148</v>
+      </c>
+      <c r="H29">
+        <v>0.01641965165440518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09180526600645098</v>
+        <v>0.05328392849518492</v>
       </c>
       <c r="C30">
-        <v>-0.05104331924148443</v>
+        <v>0.003787672203259766</v>
       </c>
       <c r="D30">
-        <v>-0.04410830745776156</v>
+        <v>0.06760299548447501</v>
       </c>
       <c r="E30">
-        <v>-0.08001178816181667</v>
+        <v>-0.03638261136756163</v>
       </c>
       <c r="F30">
-        <v>-0.06999611044909666</v>
+        <v>0.05505364683566537</v>
       </c>
       <c r="G30">
-        <v>-0.0355230273784307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06948444604869843</v>
+      </c>
+      <c r="H30">
+        <v>-0.04033720653067793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06458830704002425</v>
+        <v>0.05513599494135699</v>
       </c>
       <c r="C31">
-        <v>-0.0479398117025939</v>
+        <v>-0.01516649393128344</v>
       </c>
       <c r="D31">
-        <v>-0.0004693629133421539</v>
+        <v>0.02901345230102312</v>
       </c>
       <c r="E31">
-        <v>-0.03478117807129326</v>
+        <v>-0.009703980106922493</v>
       </c>
       <c r="F31">
-        <v>-0.03548964568352941</v>
+        <v>0.01585821095348805</v>
       </c>
       <c r="G31">
-        <v>-0.07878154195513863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0273400428485257</v>
+      </c>
+      <c r="H31">
+        <v>0.01421976960318022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01944491067299629</v>
+        <v>0.01173538201551986</v>
       </c>
       <c r="C32">
-        <v>-0.006322441302539886</v>
+        <v>-0.01400778106994252</v>
       </c>
       <c r="D32">
-        <v>-0.01578607619967339</v>
+        <v>0.003352132613000647</v>
       </c>
       <c r="E32">
-        <v>-0.06910870773333372</v>
+        <v>0.01856111556680416</v>
       </c>
       <c r="F32">
-        <v>-0.06088692290219626</v>
+        <v>0.04295366241228808</v>
       </c>
       <c r="G32">
-        <v>-0.0441260239378187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05543128799297544</v>
+      </c>
+      <c r="H32">
+        <v>-0.04480595384916453</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05410871876634624</v>
+        <v>0.03995927509629649</v>
       </c>
       <c r="C33">
-        <v>-0.03867853370511103</v>
+        <v>-0.001556286423379453</v>
       </c>
       <c r="D33">
-        <v>0.01897403824175487</v>
+        <v>0.03019269565587752</v>
       </c>
       <c r="E33">
-        <v>-0.0606801678101148</v>
+        <v>-0.025496483122076</v>
       </c>
       <c r="F33">
-        <v>-0.08768307672734652</v>
+        <v>0.002993440149453921</v>
       </c>
       <c r="G33">
-        <v>-0.04877240036590268</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06369520001988224</v>
+      </c>
+      <c r="H33">
+        <v>-0.01614345275106081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0343081633013034</v>
+        <v>0.02704202454654491</v>
       </c>
       <c r="C34">
-        <v>-0.01586839464044208</v>
+        <v>-0.01716506809974841</v>
       </c>
       <c r="D34">
-        <v>-0.01279688907347566</v>
+        <v>0.03475927154363321</v>
       </c>
       <c r="E34">
-        <v>-0.04073751680756248</v>
+        <v>0.005287061799581312</v>
       </c>
       <c r="F34">
-        <v>-0.04924903768204467</v>
+        <v>0.01793125575366038</v>
       </c>
       <c r="G34">
-        <v>-0.01511056845614425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02912488564458059</v>
+      </c>
+      <c r="H34">
+        <v>-0.02483763011175483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01435518500924128</v>
+        <v>0.02215314606037671</v>
       </c>
       <c r="C36">
-        <v>-0.002806991700960383</v>
+        <v>0.003167945774270381</v>
       </c>
       <c r="D36">
-        <v>-0.007795860574464755</v>
+        <v>-0.0008667949188726312</v>
       </c>
       <c r="E36">
-        <v>-0.0243706106650585</v>
+        <v>0.002167312894687498</v>
       </c>
       <c r="F36">
-        <v>-0.02667760242808252</v>
+        <v>0.007335349798075639</v>
       </c>
       <c r="G36">
-        <v>-0.03209955483087075</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02189652900090769</v>
+      </c>
+      <c r="H36">
+        <v>0.003398558760533832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00209389260350623</v>
+        <v>0.02180701820381588</v>
       </c>
       <c r="C38">
-        <v>0.01734482598262901</v>
+        <v>-0.01642368404140932</v>
       </c>
       <c r="D38">
-        <v>0.007782041654868984</v>
+        <v>0.001862818439709364</v>
       </c>
       <c r="E38">
-        <v>0.005146292186450539</v>
+        <v>0.005182537439938314</v>
       </c>
       <c r="F38">
-        <v>-0.01846749976384898</v>
+        <v>0.009212314696712286</v>
       </c>
       <c r="G38">
-        <v>0.01084173572108071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.029407589323173</v>
+      </c>
+      <c r="H38">
+        <v>-0.02306557355088081</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04044722049752385</v>
+        <v>0.01990779181940865</v>
       </c>
       <c r="C39">
-        <v>-0.03578137672546069</v>
+        <v>-0.0008467613542487745</v>
       </c>
       <c r="D39">
-        <v>-0.01236577113154064</v>
+        <v>0.07470775190815257</v>
       </c>
       <c r="E39">
-        <v>-0.04257647812568444</v>
+        <v>-0.005896259091310122</v>
       </c>
       <c r="F39">
-        <v>-0.05266861931082427</v>
+        <v>0.02358133900573312</v>
       </c>
       <c r="G39">
-        <v>-0.01265370498173564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05549967885285623</v>
+      </c>
+      <c r="H39">
+        <v>-0.05398373656010003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03194299329246134</v>
+        <v>0.03431516725228877</v>
       </c>
       <c r="C40">
-        <v>-0.06307885327111372</v>
+        <v>-0.001835439331162035</v>
       </c>
       <c r="D40">
-        <v>-0.01699097566489221</v>
+        <v>0.0188218026361227</v>
       </c>
       <c r="E40">
-        <v>-0.02989818687701122</v>
+        <v>-0.02263443909621674</v>
       </c>
       <c r="F40">
-        <v>-0.09546573132844512</v>
+        <v>0.02580582990574465</v>
       </c>
       <c r="G40">
-        <v>-0.05135858203077708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05200281874503363</v>
+      </c>
+      <c r="H40">
+        <v>-0.04865810648586041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001188441679979395</v>
+        <v>0.01274676679957358</v>
       </c>
       <c r="C41">
-        <v>-0.0001089213111770402</v>
+        <v>-0.0005486532780899238</v>
       </c>
       <c r="D41">
-        <v>0.002828866263004704</v>
+        <v>-0.01262714590262624</v>
       </c>
       <c r="E41">
-        <v>-0.01358537838203548</v>
+        <v>-0.0006684127376960661</v>
       </c>
       <c r="F41">
-        <v>-0.006834121446042051</v>
+        <v>0.001313340046958626</v>
       </c>
       <c r="G41">
-        <v>-0.05379957288513269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008038351271150648</v>
+      </c>
+      <c r="H41">
+        <v>0.01600075957929093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3844560793285823</v>
+        <v>0.195612185201953</v>
       </c>
       <c r="C42">
-        <v>0.1116675249540913</v>
+        <v>0.07534049571894601</v>
       </c>
       <c r="D42">
-        <v>0.8674050219674383</v>
+        <v>0.3853588944765891</v>
       </c>
       <c r="E42">
-        <v>0.1283234723311845</v>
+        <v>-0.1522932582757688</v>
       </c>
       <c r="F42">
-        <v>0.1805222666626702</v>
+        <v>-0.8571649078439335</v>
       </c>
       <c r="G42">
-        <v>-0.04812207591662198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1729263728277831</v>
+      </c>
+      <c r="H42">
+        <v>0.01650900814820273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006035382987204664</v>
+        <v>0.01171622935910244</v>
       </c>
       <c r="C43">
-        <v>-0.005245689409198031</v>
+        <v>0.001533484098629297</v>
       </c>
       <c r="D43">
-        <v>0.01406675937054149</v>
+        <v>-0.01546672741807602</v>
       </c>
       <c r="E43">
-        <v>-0.0171898700652441</v>
+        <v>-0.007409002160878026</v>
       </c>
       <c r="F43">
-        <v>-0.02333328476833985</v>
+        <v>-0.00948270016776072</v>
       </c>
       <c r="G43">
-        <v>-0.05171442531546053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01630922842457196</v>
+      </c>
+      <c r="H43">
+        <v>0.01079318247764683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01992147632221954</v>
+        <v>0.01427719994037872</v>
       </c>
       <c r="C44">
-        <v>-0.01846948533889348</v>
+        <v>-0.0003460723141916259</v>
       </c>
       <c r="D44">
-        <v>0.02185580922672024</v>
+        <v>0.02464640069078846</v>
       </c>
       <c r="E44">
-        <v>-0.06836938901267586</v>
+        <v>-0.001277018134115754</v>
       </c>
       <c r="F44">
-        <v>-0.1643257902155632</v>
+        <v>-0.007465908352314646</v>
       </c>
       <c r="G44">
-        <v>-0.1711354848243459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08754606041686808</v>
+      </c>
+      <c r="H44">
+        <v>-0.01732593579572845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0207145240476191</v>
+        <v>0.01997884692130163</v>
       </c>
       <c r="C46">
-        <v>-0.01606574372036191</v>
+        <v>0.003090465430344944</v>
       </c>
       <c r="D46">
-        <v>0.008089162404409041</v>
+        <v>0.01482779597256936</v>
       </c>
       <c r="E46">
-        <v>-0.05826710062302547</v>
+        <v>-0.001818265189036319</v>
       </c>
       <c r="F46">
-        <v>-0.06262623189726101</v>
+        <v>0.01826591945853209</v>
       </c>
       <c r="G46">
-        <v>-0.0614004431828304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0560900600460975</v>
+      </c>
+      <c r="H46">
+        <v>0.01357208413026059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.100608206439907</v>
+        <v>0.07594257092399598</v>
       </c>
       <c r="C47">
-        <v>-0.03223625050485608</v>
+        <v>-0.03063764332210195</v>
       </c>
       <c r="D47">
-        <v>-0.02180984500446812</v>
+        <v>0.04195932412111664</v>
       </c>
       <c r="E47">
-        <v>-0.0364582889860843</v>
+        <v>-0.0048066264948076</v>
       </c>
       <c r="F47">
-        <v>-0.002179947550019237</v>
+        <v>0.02557640951064975</v>
       </c>
       <c r="G47">
-        <v>-0.083398756792593</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006567132279438425</v>
+      </c>
+      <c r="H47">
+        <v>0.03149335484026221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01640332270757919</v>
+        <v>0.02262000656836221</v>
       </c>
       <c r="C48">
-        <v>-0.01340683657069401</v>
+        <v>-0.006962720129992368</v>
       </c>
       <c r="D48">
-        <v>0.001956319143182133</v>
+        <v>0.004797678003486216</v>
       </c>
       <c r="E48">
-        <v>-0.03188974070239837</v>
+        <v>-0.002765689737864435</v>
       </c>
       <c r="F48">
-        <v>-0.04246446988596511</v>
+        <v>0.009708088920147451</v>
       </c>
       <c r="G48">
-        <v>-0.0182232214054747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.03013678868612789</v>
+      </c>
+      <c r="H48">
+        <v>-0.001476212039904145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09230004062089346</v>
+        <v>0.07233809205377556</v>
       </c>
       <c r="C50">
-        <v>-0.04149861536067018</v>
+        <v>-0.02712590759316747</v>
       </c>
       <c r="D50">
-        <v>-0.008593376689296058</v>
+        <v>0.04684236117542296</v>
       </c>
       <c r="E50">
-        <v>-0.05646708417642735</v>
+        <v>0.009209355039880152</v>
       </c>
       <c r="F50">
-        <v>-0.03131614758643066</v>
+        <v>0.02235920444299846</v>
       </c>
       <c r="G50">
-        <v>-0.03904322097023374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02540056897934291</v>
+      </c>
+      <c r="H50">
+        <v>0.02486531020348391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02108283147588743</v>
+        <v>0.02046100231809665</v>
       </c>
       <c r="C51">
-        <v>-0.02143480314131778</v>
+        <v>0.0006075405429627085</v>
       </c>
       <c r="D51">
-        <v>0.0115805021996826</v>
+        <v>-0.007445342947622491</v>
       </c>
       <c r="E51">
-        <v>-0.008546968061902837</v>
+        <v>-0.006973413463303403</v>
       </c>
       <c r="F51">
-        <v>-0.1374477022431003</v>
+        <v>-0.01084401481094139</v>
       </c>
       <c r="G51">
-        <v>-0.06126499353692968</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07230551136861574</v>
+      </c>
+      <c r="H51">
+        <v>-0.02611676080213873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1031129516335378</v>
+        <v>0.09039710159654238</v>
       </c>
       <c r="C53">
-        <v>-0.04407210249698724</v>
+        <v>-0.03620406092831017</v>
       </c>
       <c r="D53">
-        <v>-0.02402538615007023</v>
+        <v>0.0791670524742126</v>
       </c>
       <c r="E53">
-        <v>-0.05559913429272281</v>
+        <v>-0.002941781324193438</v>
       </c>
       <c r="F53">
-        <v>0.05894342046986096</v>
+        <v>0.052669513656877</v>
       </c>
       <c r="G53">
-        <v>-0.02882499442228452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05164900083155745</v>
+      </c>
+      <c r="H53">
+        <v>0.04036909090379379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01668791311021628</v>
+        <v>0.0251014273331478</v>
       </c>
       <c r="C54">
-        <v>-0.003514733365513369</v>
+        <v>-0.0118416216224291</v>
       </c>
       <c r="D54">
-        <v>-0.01869620408054839</v>
+        <v>-0.01650383768971885</v>
       </c>
       <c r="E54">
-        <v>-0.03178441866796455</v>
+        <v>0.006187446725843232</v>
       </c>
       <c r="F54">
-        <v>-0.05938443384390572</v>
+        <v>0.01027489019312257</v>
       </c>
       <c r="G54">
-        <v>-0.08327198230981916</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03743578467733546</v>
+      </c>
+      <c r="H54">
+        <v>0.0145143169322066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1007800555703959</v>
+        <v>0.07627955660263318</v>
       </c>
       <c r="C55">
-        <v>-0.008167504650291053</v>
+        <v>-0.03161317272430082</v>
       </c>
       <c r="D55">
-        <v>-0.02590586005607251</v>
+        <v>0.07680813284644665</v>
       </c>
       <c r="E55">
-        <v>-0.05863176465220848</v>
+        <v>0.008203313608156749</v>
       </c>
       <c r="F55">
-        <v>0.04661525431479895</v>
+        <v>0.04282544388674934</v>
       </c>
       <c r="G55">
-        <v>-0.05488591320725533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.02949667120933141</v>
+      </c>
+      <c r="H55">
+        <v>0.0479403773085726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1464483288555667</v>
+        <v>0.1262902270790622</v>
       </c>
       <c r="C56">
-        <v>-0.04965096079700271</v>
+        <v>-0.056791693324661</v>
       </c>
       <c r="D56">
-        <v>-0.08554598828340802</v>
+        <v>0.1001937240618066</v>
       </c>
       <c r="E56">
-        <v>-0.06217344725203758</v>
+        <v>-0.0001828790565430184</v>
       </c>
       <c r="F56">
-        <v>0.1393176987962224</v>
+        <v>0.08517054188807381</v>
       </c>
       <c r="G56">
-        <v>0.02426459117649162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09035523894488397</v>
+      </c>
+      <c r="H56">
+        <v>0.03279994989839155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04247143911078736</v>
+        <v>0.03959992215786561</v>
       </c>
       <c r="C57">
-        <v>-0.02974917705731326</v>
+        <v>0.009919515900119597</v>
       </c>
       <c r="D57">
-        <v>0.008512397161503435</v>
+        <v>0.02678868701795014</v>
       </c>
       <c r="E57">
-        <v>-0.002749132324408272</v>
+        <v>-0.01180882646765798</v>
       </c>
       <c r="F57">
-        <v>-0.06988039938057646</v>
+        <v>0.01485467829639604</v>
       </c>
       <c r="G57">
-        <v>-0.04737989914936279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06242853816718004</v>
+      </c>
+      <c r="H57">
+        <v>-0.01331392898173378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1962229773968903</v>
+        <v>0.142335127429645</v>
       </c>
       <c r="C58">
-        <v>-0.1013990455740633</v>
+        <v>-0.04180175821922878</v>
       </c>
       <c r="D58">
-        <v>0.0343200184849338</v>
+        <v>0.1341687757480854</v>
       </c>
       <c r="E58">
-        <v>-0.2177835598119151</v>
+        <v>-0.1169541439752692</v>
       </c>
       <c r="F58">
-        <v>-0.2671456528259283</v>
+        <v>-0.03060776961289066</v>
       </c>
       <c r="G58">
-        <v>0.007148411066730565</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7017900358995394</v>
+      </c>
+      <c r="H58">
+        <v>0.5131405502242632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05631957592370485</v>
+        <v>0.1569315965957471</v>
       </c>
       <c r="C59">
-        <v>-0.002309015239687259</v>
+        <v>-0.04149452484826216</v>
       </c>
       <c r="D59">
-        <v>-0.0639816386304779</v>
+        <v>-0.2200844668724788</v>
       </c>
       <c r="E59">
-        <v>0.1403224299362113</v>
+        <v>-0.02488608910023492</v>
       </c>
       <c r="F59">
-        <v>-0.08461158292644452</v>
+        <v>-0.03677023316131083</v>
       </c>
       <c r="G59">
-        <v>0.01878561902213474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01438950527009755</v>
+      </c>
+      <c r="H59">
+        <v>-0.01738410169444959</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.163933562248241</v>
+        <v>0.17262411845086</v>
       </c>
       <c r="C60">
-        <v>-0.07803269849743925</v>
+        <v>-0.03764558446867404</v>
       </c>
       <c r="D60">
-        <v>0.008804822732913428</v>
+        <v>0.02412885420211459</v>
       </c>
       <c r="E60">
-        <v>-0.00593519205459896</v>
+        <v>-0.05389433066419303</v>
       </c>
       <c r="F60">
-        <v>-0.1679976680982657</v>
+        <v>0.03158128538635249</v>
       </c>
       <c r="G60">
-        <v>0.3330576775788405</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.121686190311139</v>
+      </c>
+      <c r="H60">
+        <v>-0.3880604361119853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0221709108303177</v>
+        <v>0.02146657878852776</v>
       </c>
       <c r="C61">
-        <v>-0.008191943548125311</v>
+        <v>-0.00616873239353551</v>
       </c>
       <c r="D61">
-        <v>-0.001465735255599369</v>
+        <v>0.04287081079550973</v>
       </c>
       <c r="E61">
-        <v>-0.02074429260900757</v>
+        <v>0.001080659771438722</v>
       </c>
       <c r="F61">
-        <v>-0.02710744279384928</v>
+        <v>0.0184868497128246</v>
       </c>
       <c r="G61">
-        <v>-0.008718628285092985</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03342807236863088</v>
+      </c>
+      <c r="H61">
+        <v>-0.0384998349501527</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01614452021350012</v>
+        <v>0.01305003470809385</v>
       </c>
       <c r="C63">
-        <v>-0.0115431109553615</v>
+        <v>0.002091884589579947</v>
       </c>
       <c r="D63">
-        <v>-0.001091653376511938</v>
+        <v>0.012035866278584</v>
       </c>
       <c r="E63">
-        <v>-0.04221910764059023</v>
+        <v>0.001745776417155258</v>
       </c>
       <c r="F63">
-        <v>-0.007665293423974971</v>
+        <v>0.01559837243688832</v>
       </c>
       <c r="G63">
-        <v>-0.04162124409431677</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01632113483881005</v>
+      </c>
+      <c r="H63">
+        <v>0.01331339986822921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0392550623187281</v>
+        <v>0.04240609063638662</v>
       </c>
       <c r="C64">
-        <v>0.01491253145392214</v>
+        <v>-0.01074225510357141</v>
       </c>
       <c r="D64">
-        <v>-0.01775940072799231</v>
+        <v>0.03968175373487971</v>
       </c>
       <c r="E64">
-        <v>-0.0392168575263715</v>
+        <v>0.008371387638798857</v>
       </c>
       <c r="F64">
-        <v>-0.02437259040374864</v>
+        <v>0.01022040349274163</v>
       </c>
       <c r="G64">
-        <v>-0.06216173494160485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01987095804911132</v>
+      </c>
+      <c r="H64">
+        <v>-0.02724452831049319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0144276488822506</v>
+        <v>0.02790090446633071</v>
       </c>
       <c r="C65">
-        <v>-0.009562482476276283</v>
+        <v>0.005202919465239334</v>
       </c>
       <c r="D65">
-        <v>0.009041460157777697</v>
+        <v>0.0607126852618773</v>
       </c>
       <c r="E65">
-        <v>-0.01924201924917925</v>
+        <v>0.005801775846464576</v>
       </c>
       <c r="F65">
-        <v>-0.01259840807652794</v>
+        <v>0.03454300347937261</v>
       </c>
       <c r="G65">
-        <v>0.009078064912887094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.008317715930057245</v>
+      </c>
+      <c r="H65">
+        <v>-0.05851727239164891</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04102180600158133</v>
+        <v>0.02592340764840044</v>
       </c>
       <c r="C66">
-        <v>-0.02901758539169049</v>
+        <v>-0.005234751111522115</v>
       </c>
       <c r="D66">
-        <v>-0.0104630621563969</v>
+        <v>0.08736291984802962</v>
       </c>
       <c r="E66">
-        <v>-0.03749166055584575</v>
+        <v>-0.01152455005798099</v>
       </c>
       <c r="F66">
-        <v>-0.04997536490543945</v>
+        <v>0.03901004109390828</v>
       </c>
       <c r="G66">
-        <v>0.00168996094726877</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04717403342365994</v>
+      </c>
+      <c r="H66">
+        <v>-0.05994896261158245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01638634832053989</v>
+        <v>0.04351258393448814</v>
       </c>
       <c r="C67">
-        <v>0.01407941313622426</v>
+        <v>-0.0202724304942741</v>
       </c>
       <c r="D67">
-        <v>0.003111894196520836</v>
+        <v>-0.002472018448642818</v>
       </c>
       <c r="E67">
-        <v>0.02780605227978148</v>
+        <v>0.002789886184842974</v>
       </c>
       <c r="F67">
-        <v>-0.02067785739688997</v>
+        <v>0.01308510375529708</v>
       </c>
       <c r="G67">
-        <v>0.01804095696752316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0166554173330708</v>
+      </c>
+      <c r="H67">
+        <v>-0.03406861881763841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07232331385618448</v>
+        <v>0.1611455388288585</v>
       </c>
       <c r="C68">
-        <v>0.01825647683536292</v>
+        <v>-0.02236874193360923</v>
       </c>
       <c r="D68">
-        <v>-0.07085183013483611</v>
+        <v>-0.2163083072448068</v>
       </c>
       <c r="E68">
-        <v>0.1828055609171598</v>
+        <v>-0.0202975922300874</v>
       </c>
       <c r="F68">
-        <v>-0.07082490897447488</v>
+        <v>-0.05712269082995414</v>
       </c>
       <c r="G68">
-        <v>0.04260190536530593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01446554474635528</v>
+      </c>
+      <c r="H68">
+        <v>0.04079309406975286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07293109711820317</v>
+        <v>0.0580611207256121</v>
       </c>
       <c r="C69">
-        <v>-0.03339264356180493</v>
+        <v>-0.02837093781135523</v>
       </c>
       <c r="D69">
-        <v>-0.02435251315024007</v>
+        <v>0.03953929976958941</v>
       </c>
       <c r="E69">
-        <v>-0.01433723274173769</v>
+        <v>-0.005280503473326662</v>
       </c>
       <c r="F69">
-        <v>-0.001147415663455746</v>
+        <v>0.02852285705744159</v>
       </c>
       <c r="G69">
-        <v>-0.07680298468410851</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002371397057497095</v>
+      </c>
+      <c r="H69">
+        <v>0.01149155919319004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08642353851118936</v>
+        <v>0.1518730290515362</v>
       </c>
       <c r="C71">
-        <v>-0.0002766289798174315</v>
+        <v>-0.02970215913359007</v>
       </c>
       <c r="D71">
-        <v>-0.06106986856788038</v>
+        <v>-0.1992827336278958</v>
       </c>
       <c r="E71">
-        <v>0.212724331095708</v>
+        <v>-0.02070482814708526</v>
       </c>
       <c r="F71">
-        <v>-0.07463438033646204</v>
+        <v>-0.06560967029282699</v>
       </c>
       <c r="G71">
-        <v>0.005131071735729043</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.00903105357908896</v>
+      </c>
+      <c r="H71">
+        <v>0.02493064792475884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1069481748065184</v>
+        <v>0.08393437636541171</v>
       </c>
       <c r="C72">
-        <v>-0.04506635186746755</v>
+        <v>-0.04037093815100657</v>
       </c>
       <c r="D72">
-        <v>-0.07592637310380067</v>
+        <v>0.08564358710300461</v>
       </c>
       <c r="E72">
-        <v>-0.05936831841624735</v>
+        <v>-0.009201315893490098</v>
       </c>
       <c r="F72">
-        <v>-0.1143037650972343</v>
+        <v>0.08290275259184676</v>
       </c>
       <c r="G72">
-        <v>0.1131830936200941</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09881525361244448</v>
+      </c>
+      <c r="H72">
+        <v>-0.1605014800902047</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2449186744962739</v>
+        <v>0.2411722339616808</v>
       </c>
       <c r="C73">
-        <v>-0.08526530972458737</v>
+        <v>-0.05014218958573923</v>
       </c>
       <c r="D73">
-        <v>-0.007975374462519337</v>
+        <v>0.0699521914936552</v>
       </c>
       <c r="E73">
-        <v>0.08614312619264651</v>
+        <v>-0.08062058534636726</v>
       </c>
       <c r="F73">
-        <v>-0.2778052706427956</v>
+        <v>0.02856691426433235</v>
       </c>
       <c r="G73">
-        <v>0.4847781928288418</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1598973483616925</v>
+      </c>
+      <c r="H73">
+        <v>-0.5165086102799463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1321773410564233</v>
+        <v>0.1156376481661577</v>
       </c>
       <c r="C74">
-        <v>-0.03942629958591392</v>
+        <v>-0.05188479128470564</v>
       </c>
       <c r="D74">
-        <v>-0.03718079052857466</v>
+        <v>0.1000403258349224</v>
       </c>
       <c r="E74">
-        <v>-0.02313871306364825</v>
+        <v>-0.00607702950280596</v>
       </c>
       <c r="F74">
-        <v>0.09137726951433059</v>
+        <v>0.06705439631337153</v>
       </c>
       <c r="G74">
-        <v>0.03044104989145551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06763795988896606</v>
+      </c>
+      <c r="H74">
+        <v>0.01569416779302323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2198654060144803</v>
+        <v>0.223721494547608</v>
       </c>
       <c r="C75">
-        <v>-0.1052299502360123</v>
+        <v>-0.1019398940895262</v>
       </c>
       <c r="D75">
-        <v>-0.1153111036393166</v>
+        <v>0.1599674914787819</v>
       </c>
       <c r="E75">
-        <v>-0.09577714879413311</v>
+        <v>-0.02440868151625238</v>
       </c>
       <c r="F75">
-        <v>0.141169700055781</v>
+        <v>0.1494328818678204</v>
       </c>
       <c r="G75">
-        <v>-0.0254049876593891</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1394722126126918</v>
+      </c>
+      <c r="H75">
+        <v>0.09079937872013594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2696991209829845</v>
+        <v>0.1979245251119744</v>
       </c>
       <c r="C76">
-        <v>-0.05212841873143135</v>
+        <v>-0.09531944672235693</v>
       </c>
       <c r="D76">
-        <v>-0.1569411415981149</v>
+        <v>0.1552605331299626</v>
       </c>
       <c r="E76">
-        <v>-0.06971142310889937</v>
+        <v>0.01866384326820889</v>
       </c>
       <c r="F76">
-        <v>0.1784455785043361</v>
+        <v>0.1525504019681321</v>
       </c>
       <c r="G76">
-        <v>-0.0483651276549922</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1523806409470244</v>
+      </c>
+      <c r="H76">
+        <v>0.1029877326455292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1453810257685286</v>
+        <v>0.07196554338829111</v>
       </c>
       <c r="C77">
-        <v>-0.03944001183448222</v>
+        <v>-0.009712777293641306</v>
       </c>
       <c r="D77">
-        <v>0.07012181442322224</v>
+        <v>0.07608715874017623</v>
       </c>
       <c r="E77">
-        <v>-0.09877511308866314</v>
+        <v>-0.01563004042656286</v>
       </c>
       <c r="F77">
-        <v>-0.2078339514305383</v>
+        <v>-0.02994045916770654</v>
       </c>
       <c r="G77">
-        <v>-0.1770324427117567</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1277040498362995</v>
+      </c>
+      <c r="H77">
+        <v>0.06896090494729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05686263472971372</v>
+        <v>0.03649098442856395</v>
       </c>
       <c r="C78">
-        <v>-0.02945966338690285</v>
+        <v>-0.01029168435241308</v>
       </c>
       <c r="D78">
-        <v>-0.0003223457583142554</v>
+        <v>0.06401637836892388</v>
       </c>
       <c r="E78">
-        <v>-0.09939430111655245</v>
+        <v>-0.0007171890318688324</v>
       </c>
       <c r="F78">
-        <v>-0.05135054385758023</v>
+        <v>0.03212378105086571</v>
       </c>
       <c r="G78">
-        <v>-0.04874746021297118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05860927620712677</v>
+      </c>
+      <c r="H78">
+        <v>-0.03194355349834571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2123033206999275</v>
+        <v>0.153566485881722</v>
       </c>
       <c r="C80">
-        <v>0.9308036070217981</v>
+        <v>-0.04655657360866985</v>
       </c>
       <c r="D80">
-        <v>-0.1618045231232673</v>
+        <v>0.04838669826327976</v>
       </c>
       <c r="E80">
-        <v>-0.1962080901671323</v>
+        <v>0.9628121996533352</v>
       </c>
       <c r="F80">
-        <v>-0.0540595658338666</v>
+        <v>-0.1424598186128347</v>
       </c>
       <c r="G80">
-        <v>0.04918585931970716</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.08503659886526417</v>
+      </c>
+      <c r="H80">
+        <v>-0.01171600932872922</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1589543140466924</v>
+        <v>0.1471294610331771</v>
       </c>
       <c r="C81">
-        <v>-0.05153298334179876</v>
+        <v>-0.06625865710576567</v>
       </c>
       <c r="D81">
-        <v>-0.1038103369458016</v>
+        <v>0.1008531820871926</v>
       </c>
       <c r="E81">
-        <v>-0.05220124179044638</v>
+        <v>0.001579672477293425</v>
       </c>
       <c r="F81">
-        <v>0.1450524405139348</v>
+        <v>0.09640482284121238</v>
       </c>
       <c r="G81">
-        <v>0.00846272704854726</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09363918117861984</v>
+      </c>
+      <c r="H81">
+        <v>0.07148370935687669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05333121081289467</v>
+        <v>0.03534225665018417</v>
       </c>
       <c r="C83">
-        <v>-0.03569561223260608</v>
+        <v>-0.006821240093218761</v>
       </c>
       <c r="D83">
-        <v>0.02685731446222911</v>
+        <v>0.02420491549286355</v>
       </c>
       <c r="E83">
-        <v>-0.02857337321159681</v>
+        <v>-0.0140794615330742</v>
       </c>
       <c r="F83">
-        <v>-0.06151308761445573</v>
+        <v>0.006541711958663872</v>
       </c>
       <c r="G83">
-        <v>-0.04850885815161454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06041609954987773</v>
+      </c>
+      <c r="H83">
+        <v>-0.01825970798950627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2388855785830826</v>
+        <v>0.2096727760193533</v>
       </c>
       <c r="C85">
-        <v>-0.07980435301727044</v>
+        <v>-0.08399809925264373</v>
       </c>
       <c r="D85">
-        <v>-0.1216304634667129</v>
+        <v>0.1623569080559328</v>
       </c>
       <c r="E85">
-        <v>-0.07639600227169036</v>
+        <v>-0.01698102772472016</v>
       </c>
       <c r="F85">
-        <v>0.1710142021906981</v>
+        <v>0.1316845730845742</v>
       </c>
       <c r="G85">
-        <v>-0.0648447190273372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1519547814162484</v>
+      </c>
+      <c r="H85">
+        <v>0.06506134316324579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0004201034814093429</v>
+        <v>0.01827004887802254</v>
       </c>
       <c r="C86">
-        <v>0.006840274368219717</v>
+        <v>0.0003475766362392753</v>
       </c>
       <c r="D86">
-        <v>0.01504714272606291</v>
+        <v>0.003411892015555088</v>
       </c>
       <c r="E86">
-        <v>-0.04295061289812285</v>
+        <v>-0.01192974829787465</v>
       </c>
       <c r="F86">
-        <v>-0.0665820271960484</v>
+        <v>-0.009604571291237995</v>
       </c>
       <c r="G86">
-        <v>-0.02711040807438234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08471942737247722</v>
+      </c>
+      <c r="H86">
+        <v>-0.039955868177515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03381878195735123</v>
+        <v>0.02790255236099716</v>
       </c>
       <c r="C87">
-        <v>-0.01036404931480799</v>
+        <v>-0.002795291544953284</v>
       </c>
       <c r="D87">
-        <v>0.004140467875447164</v>
+        <v>0.03270280332807335</v>
       </c>
       <c r="E87">
-        <v>-0.02446296695796847</v>
+        <v>-0.003134971638650366</v>
       </c>
       <c r="F87">
-        <v>-0.09008596111310713</v>
+        <v>0.01156895093654263</v>
       </c>
       <c r="G87">
-        <v>-0.008099585592791551</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09444296469090538</v>
+      </c>
+      <c r="H87">
+        <v>-0.0319518805402534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01128150024177868</v>
+        <v>0.03792669489764675</v>
       </c>
       <c r="C88">
-        <v>0.01866104940696842</v>
+        <v>0.01030623756041863</v>
       </c>
       <c r="D88">
-        <v>-0.02183630908783191</v>
+        <v>0.00262633871457066</v>
       </c>
       <c r="E88">
-        <v>0.002567337921727207</v>
+        <v>0.009731123671932702</v>
       </c>
       <c r="F88">
-        <v>-0.02269303385717735</v>
+        <v>0.01396005464847244</v>
       </c>
       <c r="G88">
-        <v>-0.07111916893299465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005051447372028466</v>
+      </c>
+      <c r="H88">
+        <v>-0.009708066808492453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1005659512665267</v>
+        <v>0.2453270755003803</v>
       </c>
       <c r="C89">
-        <v>-0.003439981827324701</v>
+        <v>-0.04351890280302696</v>
       </c>
       <c r="D89">
-        <v>-0.07700285730757338</v>
+        <v>-0.3392057481782028</v>
       </c>
       <c r="E89">
-        <v>0.2810620065806086</v>
+        <v>-0.05141694114695483</v>
       </c>
       <c r="F89">
-        <v>-0.1242124083766968</v>
+        <v>-0.0715589836950668</v>
       </c>
       <c r="G89">
-        <v>-0.04781235738977896</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.004445559890500717</v>
+      </c>
+      <c r="H89">
+        <v>0.03775569935499203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09948877967967372</v>
+        <v>0.2005275610928103</v>
       </c>
       <c r="C90">
-        <v>0.04602255795710097</v>
+        <v>-0.03675996589775464</v>
       </c>
       <c r="D90">
-        <v>-0.09670636086445837</v>
+        <v>-0.3010781025769459</v>
       </c>
       <c r="E90">
-        <v>0.313067907369284</v>
+        <v>-0.02898487439476797</v>
       </c>
       <c r="F90">
-        <v>-0.08790773099609138</v>
+        <v>-0.08444455044037705</v>
       </c>
       <c r="G90">
-        <v>-0.0238163086259815</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.047403694899147</v>
+      </c>
+      <c r="H90">
+        <v>0.05105695003317225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2914838125883142</v>
+        <v>0.2318014401666695</v>
       </c>
       <c r="C91">
-        <v>-0.0920893496927581</v>
+        <v>-0.1039702371076999</v>
       </c>
       <c r="D91">
-        <v>-0.1165941139877128</v>
+        <v>0.1556715979423471</v>
       </c>
       <c r="E91">
-        <v>-0.04663973244180119</v>
+        <v>-0.01603705335069781</v>
       </c>
       <c r="F91">
-        <v>0.2366661447856716</v>
+        <v>0.1448897694603991</v>
       </c>
       <c r="G91">
-        <v>-0.007576527162256932</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1855753922303909</v>
+      </c>
+      <c r="H91">
+        <v>0.1274622953409429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1677087576003414</v>
+        <v>0.2469620786763436</v>
       </c>
       <c r="C92">
-        <v>0.04940821667612352</v>
+        <v>-0.09862101811530025</v>
       </c>
       <c r="D92">
-        <v>-0.1447596746939332</v>
+        <v>-0.237348583410801</v>
       </c>
       <c r="E92">
-        <v>0.4624191824524228</v>
+        <v>-0.01234791577150609</v>
       </c>
       <c r="F92">
-        <v>0.004251580063566469</v>
+        <v>-0.04743229343939837</v>
       </c>
       <c r="G92">
-        <v>-0.476853617892314</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0408270846879176</v>
+      </c>
+      <c r="H92">
+        <v>0.1447956414626093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1002963671413115</v>
+        <v>0.2243952861138791</v>
       </c>
       <c r="C93">
-        <v>0.04836082344126514</v>
+        <v>-0.04847036933273021</v>
       </c>
       <c r="D93">
-        <v>-0.09629514692627</v>
+        <v>-0.3278715595022539</v>
       </c>
       <c r="E93">
-        <v>0.4227936701667053</v>
+        <v>-0.04249134560006838</v>
       </c>
       <c r="F93">
-        <v>-0.05258766354909709</v>
+        <v>-0.1074852985630985</v>
       </c>
       <c r="G93">
-        <v>0.05123396005778176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05713613715775611</v>
+      </c>
+      <c r="H93">
+        <v>-0.007242092588782281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2742326281365117</v>
+        <v>0.2525476697254848</v>
       </c>
       <c r="C94">
-        <v>-0.09944494103477185</v>
+        <v>-0.09364360579619996</v>
       </c>
       <c r="D94">
-        <v>-0.2028844264670995</v>
+        <v>0.1371106235468029</v>
       </c>
       <c r="E94">
-        <v>-0.05877117307839766</v>
+        <v>-0.03222199885876541</v>
       </c>
       <c r="F94">
-        <v>0.2641220371732985</v>
+        <v>0.185336031818813</v>
       </c>
       <c r="G94">
-        <v>0.05944215599657695</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1910834102559988</v>
+      </c>
+      <c r="H94">
+        <v>0.1338672948822791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07721693312330967</v>
+        <v>0.05721455147167125</v>
       </c>
       <c r="C95">
-        <v>-0.07113619864510755</v>
+        <v>-0.03042109341076326</v>
       </c>
       <c r="D95">
-        <v>0.03094600875840088</v>
+        <v>0.09486969247983883</v>
       </c>
       <c r="E95">
-        <v>-0.1051070065734</v>
+        <v>-0.07722533335895751</v>
       </c>
       <c r="F95">
-        <v>-0.01063315035195076</v>
+        <v>0.009273337863465148</v>
       </c>
       <c r="G95">
-        <v>-0.1957017014068672</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06156982851217786</v>
+      </c>
+      <c r="H95">
+        <v>-0.00943616623143529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.183881591013839</v>
+        <v>0.1826040333986515</v>
       </c>
       <c r="C98">
-        <v>-0.05101255051724561</v>
+        <v>-0.07068807610122273</v>
       </c>
       <c r="D98">
-        <v>0.001524748234673568</v>
+        <v>0.04066029262380855</v>
       </c>
       <c r="E98">
-        <v>0.08090058072064828</v>
+        <v>-0.05317907533579476</v>
       </c>
       <c r="F98">
-        <v>-0.1214639680466294</v>
+        <v>0.001993187832732181</v>
       </c>
       <c r="G98">
-        <v>0.3451469835668701</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1405773602464581</v>
+      </c>
+      <c r="H98">
+        <v>-0.3759271556834417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005563075445994724</v>
+        <v>0.01496310908652808</v>
       </c>
       <c r="C101">
-        <v>-0.01201806229759192</v>
+        <v>0.0005327246791826515</v>
       </c>
       <c r="D101">
-        <v>-0.005449731251651841</v>
+        <v>0.008636219096742304</v>
       </c>
       <c r="E101">
-        <v>-0.1085681045376601</v>
+        <v>0.004408581679079633</v>
       </c>
       <c r="F101">
-        <v>-0.146229102216816</v>
+        <v>0.02205893533160573</v>
       </c>
       <c r="G101">
-        <v>-0.122272073448295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1051965464100933</v>
+      </c>
+      <c r="H101">
+        <v>0.0646019737476323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1012576511586966</v>
+        <v>0.1025863317770361</v>
       </c>
       <c r="C102">
-        <v>-0.02970573754843168</v>
+        <v>-0.03360637751190818</v>
       </c>
       <c r="D102">
-        <v>-0.04150030449216456</v>
+        <v>0.07929188866776331</v>
       </c>
       <c r="E102">
-        <v>-0.06625832545478848</v>
+        <v>-0.001396976835169921</v>
       </c>
       <c r="F102">
-        <v>0.1206030833499193</v>
+        <v>0.06589579569617136</v>
       </c>
       <c r="G102">
-        <v>-0.05052208051274323</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08778567052963886</v>
+      </c>
+      <c r="H102">
+        <v>0.05611600732472512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02563174008271571</v>
+        <v>0.01940229640305468</v>
       </c>
       <c r="C103">
-        <v>-0.00700093186294884</v>
+        <v>-0.007526135213265025</v>
       </c>
       <c r="D103">
-        <v>-0.01454032802618321</v>
+        <v>0.01848130050730947</v>
       </c>
       <c r="E103">
-        <v>-0.01894106092596053</v>
+        <v>0.006218172058437262</v>
       </c>
       <c r="F103">
-        <v>0.02168331912373228</v>
+        <v>0.01806725573873364</v>
       </c>
       <c r="G103">
-        <v>-0.02972455910292925</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.003434149983185538</v>
+      </c>
+      <c r="H103">
+        <v>0.01097574146429369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2760265863847329</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9446277391500969</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.001653518187947365</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02469754455239769</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1436388237313611</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02662458639436587</v>
+      </c>
+      <c r="H104">
+        <v>0.028876452062093</v>
       </c>
     </row>
   </sheetData>
